--- a/Data_frame/balancos_definitivos/LCAM3.xlsx
+++ b/Data_frame/balancos_definitivos/LCAM3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD80"/>
+  <dimension ref="A1:BA80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,40 +676,25 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2022</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2024</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2024</t>
         </is>
@@ -863,28 +848,19 @@
         <v>21368276.992</v>
       </c>
       <c r="AW2" t="n">
-        <v>966868.992</v>
+        <v>20155832.32</v>
       </c>
       <c r="AX2" t="n">
-        <v>974760</v>
+        <v>20214478.848</v>
       </c>
       <c r="AY2" t="n">
-        <v>986137.9840000001</v>
+        <v>20275263.488</v>
       </c>
       <c r="AZ2" t="n">
-        <v>20155832.32</v>
+        <v>20381730.816</v>
       </c>
       <c r="BA2" t="n">
-        <v>20214478.848</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>942361.9840000001</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>960828.032</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>935268.992</v>
+        <v>19887908.864</v>
       </c>
     </row>
     <row r="3">
@@ -1035,28 +1011,19 @@
         <v>7473930.752</v>
       </c>
       <c r="AW3" t="n">
-        <v>45525</v>
+        <v>3672973.056</v>
       </c>
       <c r="AX3" t="n">
-        <v>51943</v>
+        <v>3217801.984</v>
       </c>
       <c r="AY3" t="n">
-        <v>72642</v>
+        <v>4535845.888</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3672973.056</v>
+        <v>5319416.832</v>
       </c>
       <c r="BA3" t="n">
-        <v>3217801.984</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>34927</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>54518</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>30788</v>
+        <v>6005566.976</v>
       </c>
     </row>
     <row r="4">
@@ -1207,28 +1174,19 @@
         <v>1752503.04</v>
       </c>
       <c r="AW4" t="n">
-        <v>12348</v>
+        <v>281505.984</v>
       </c>
       <c r="AX4" t="n">
-        <v>2051</v>
+        <v>62640</v>
       </c>
       <c r="AY4" t="n">
-        <v>3532</v>
+        <v>227884</v>
       </c>
       <c r="AZ4" t="n">
-        <v>281505.984</v>
+        <v>104105</v>
       </c>
       <c r="BA4" t="n">
-        <v>62640</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>2084</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>4190</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>21680</v>
+        <v>147772.992</v>
       </c>
     </row>
     <row r="5">
@@ -1379,28 +1337,19 @@
         <v>383668</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>409281.984</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>922014.976</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>1942801.024</v>
       </c>
       <c r="AZ5" t="n">
-        <v>409281.984</v>
+        <v>3089976.064</v>
       </c>
       <c r="BA5" t="n">
-        <v>922014.976</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
+        <v>3999759.872</v>
       </c>
     </row>
     <row r="6">
@@ -1551,28 +1500,19 @@
         <v>750624</v>
       </c>
       <c r="AW6" t="n">
-        <v>30985</v>
+        <v>1039260.992</v>
       </c>
       <c r="AX6" t="n">
-        <v>48528</v>
+        <v>1114624</v>
       </c>
       <c r="AY6" t="n">
-        <v>67374</v>
+        <v>1200177.024</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1039260.992</v>
+        <v>1118182.016</v>
       </c>
       <c r="BA6" t="n">
-        <v>1114624</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>28023</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>45471</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>2772</v>
+        <v>1010062.016</v>
       </c>
     </row>
     <row r="7">
@@ -1723,27 +1663,18 @@
         <v>714764.992</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>55276</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>25875</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>20621</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55276</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>25875</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1909,15 +1840,6 @@
       <c r="BA8" t="n">
         <v>0</v>
       </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2067,28 +1989,19 @@
         <v>195424.992</v>
       </c>
       <c r="AW9" t="n">
-        <v>1177</v>
+        <v>122102</v>
       </c>
       <c r="AX9" t="n">
-        <v>937</v>
+        <v>134439.008</v>
       </c>
       <c r="AY9" t="n">
-        <v>904</v>
+        <v>180964.992</v>
       </c>
       <c r="AZ9" t="n">
-        <v>122102</v>
+        <v>173664.992</v>
       </c>
       <c r="BA9" t="n">
-        <v>134439.008</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>3957</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>3967</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>5279</v>
+        <v>171420</v>
       </c>
     </row>
     <row r="10">
@@ -2239,7 +2152,7 @@
         <v>92986</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>97358</v>
       </c>
       <c r="AX10" t="n">
         <v>0</v>
@@ -2248,18 +2161,9 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>97358</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2411,28 +2315,19 @@
         <v>3583960.064</v>
       </c>
       <c r="AW11" t="n">
-        <v>1015</v>
+        <v>1668188.032</v>
       </c>
       <c r="AX11" t="n">
-        <v>427</v>
+        <v>958209.024</v>
       </c>
       <c r="AY11" t="n">
-        <v>832</v>
+        <v>963398.0159999999</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1668188.032</v>
+        <v>833489.024</v>
       </c>
       <c r="BA11" t="n">
-        <v>958209.024</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>863</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>890</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>1057</v>
+        <v>676552</v>
       </c>
     </row>
     <row r="12">
@@ -2583,28 +2478,19 @@
         <v>409249.984</v>
       </c>
       <c r="AW12" t="n">
-        <v>63265</v>
+        <v>1708312.064</v>
       </c>
       <c r="AX12" t="n">
-        <v>69267</v>
+        <v>1754544</v>
       </c>
       <c r="AY12" t="n">
-        <v>60885</v>
+        <v>662329.9840000001</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1708312.064</v>
+        <v>454752</v>
       </c>
       <c r="BA12" t="n">
-        <v>1754544</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>57247</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>56846</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>55945</v>
+        <v>337878.016</v>
       </c>
     </row>
     <row r="13">
@@ -2758,24 +2644,15 @@
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>51676</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>5751</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>51676</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2941,15 +2818,6 @@
       <c r="BA14" t="n">
         <v>0</v>
       </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3099,28 +2967,19 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>1175367.04</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>1156653.056</v>
       </c>
       <c r="AY15" t="n">
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1175367.04</v>
+        <v>3441</v>
       </c>
       <c r="BA15" t="n">
-        <v>1156653.056</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="16">
@@ -3271,28 +3130,19 @@
         <v>3261</v>
       </c>
       <c r="AW16" t="n">
-        <v>39727</v>
+        <v>4973</v>
       </c>
       <c r="AX16" t="n">
-        <v>52555</v>
+        <v>3930</v>
       </c>
       <c r="AY16" t="n">
-        <v>44200</v>
+        <v>2550</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4973</v>
+        <v>3472</v>
       </c>
       <c r="BA16" t="n">
-        <v>3930</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>41459</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>40361</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>41740</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="17">
@@ -3457,15 +3307,6 @@
       <c r="BA17" t="n">
         <v>0</v>
       </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3629,15 +3470,6 @@
       <c r="BA18" t="n">
         <v>0</v>
       </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3787,28 +3619,19 @@
         <v>15074</v>
       </c>
       <c r="AW19" t="n">
-        <v>7139</v>
+        <v>848</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>2564</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>3769</v>
       </c>
       <c r="AZ19" t="n">
-        <v>848</v>
+        <v>22289</v>
       </c>
       <c r="BA19" t="n">
-        <v>2564</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
+        <v>23079</v>
       </c>
     </row>
     <row r="20">
@@ -3959,7 +3782,7 @@
         <v>2115</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="AX20" t="n">
         <v>0</v>
@@ -3968,18 +3791,9 @@
         <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4145,15 +3959,6 @@
       <c r="BA21" t="n">
         <v>0</v>
       </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4303,28 +4108,19 @@
         <v>1132</v>
       </c>
       <c r="AW22" t="n">
-        <v>811651.968</v>
+        <v>1092</v>
       </c>
       <c r="AX22" t="n">
-        <v>806985.024</v>
+        <v>690</v>
       </c>
       <c r="AY22" t="n">
-        <v>806028.032</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
-        <v>1092</v>
+        <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>690</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>803198.0159999999</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>802502.976</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>801590.976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4475,28 +4271,19 @@
         <v>12496811.008</v>
       </c>
       <c r="AW23" t="n">
-        <v>46427</v>
+        <v>13937382.4</v>
       </c>
       <c r="AX23" t="n">
-        <v>46565</v>
+        <v>14416036.864</v>
       </c>
       <c r="AY23" t="n">
-        <v>46583</v>
+        <v>14264578.048</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13937382.4</v>
+        <v>13806130.176</v>
       </c>
       <c r="BA23" t="n">
-        <v>14416036.864</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>46990</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>46961</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>46945</v>
+        <v>12755156.992</v>
       </c>
     </row>
     <row r="24">
@@ -4647,28 +4434,19 @@
         <v>987150.976</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>836073.024</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>825404.992</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>812508.992</v>
       </c>
       <c r="AZ24" t="n">
-        <v>836073.024</v>
+        <v>801430.976</v>
       </c>
       <c r="BA24" t="n">
-        <v>825404.992</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>0</v>
+        <v>789307.008</v>
       </c>
     </row>
     <row r="25">
@@ -4833,15 +4611,6 @@
       <c r="BA25" t="n">
         <v>0</v>
       </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4991,28 +4760,19 @@
         <v>21368276.992</v>
       </c>
       <c r="AW26" t="n">
-        <v>966868.992</v>
+        <v>20155832.32</v>
       </c>
       <c r="AX26" t="n">
-        <v>974760</v>
+        <v>20214478.848</v>
       </c>
       <c r="AY26" t="n">
-        <v>986137.9840000001</v>
+        <v>20275263.488</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20155832.32</v>
+        <v>20381730.816</v>
       </c>
       <c r="BA26" t="n">
-        <v>20214478.848</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>942361.9840000001</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>960828.032</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>935268.992</v>
+        <v>19887908.864</v>
       </c>
     </row>
     <row r="27">
@@ -5163,28 +4923,19 @@
         <v>5058816</v>
       </c>
       <c r="AW27" t="n">
-        <v>34951</v>
+        <v>3599158.016</v>
       </c>
       <c r="AX27" t="n">
-        <v>101244</v>
+        <v>3310508.032</v>
       </c>
       <c r="AY27" t="n">
-        <v>66694</v>
+        <v>1378333.056</v>
       </c>
       <c r="AZ27" t="n">
-        <v>3599158.016</v>
+        <v>1210521.984</v>
       </c>
       <c r="BA27" t="n">
-        <v>3310508.032</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>65341</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>79473</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>77232</v>
+        <v>1537315.968</v>
       </c>
     </row>
     <row r="28">
@@ -5335,28 +5086,19 @@
         <v>79121</v>
       </c>
       <c r="AW28" t="n">
-        <v>740</v>
+        <v>90176</v>
       </c>
       <c r="AX28" t="n">
-        <v>1064</v>
+        <v>92632</v>
       </c>
       <c r="AY28" t="n">
-        <v>1272</v>
+        <v>38658</v>
       </c>
       <c r="AZ28" t="n">
-        <v>90176</v>
+        <v>41575</v>
       </c>
       <c r="BA28" t="n">
-        <v>92632</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
+        <v>40301</v>
       </c>
     </row>
     <row r="29">
@@ -5507,28 +5249,19 @@
         <v>2929907.968</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>1026249.024</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>935950.976</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>909787.008</v>
       </c>
       <c r="AZ29" t="n">
-        <v>1026249.024</v>
+        <v>804750.976</v>
       </c>
       <c r="BA29" t="n">
-        <v>935950.976</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>0</v>
+        <v>520355.008</v>
       </c>
     </row>
     <row r="30">
@@ -5679,28 +5412,19 @@
         <v>31311</v>
       </c>
       <c r="AW30" t="n">
-        <v>9424</v>
+        <v>26374</v>
       </c>
       <c r="AX30" t="n">
-        <v>7676</v>
+        <v>69131</v>
       </c>
       <c r="AY30" t="n">
-        <v>6390</v>
+        <v>55142</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26374</v>
+        <v>109930</v>
       </c>
       <c r="BA30" t="n">
-        <v>69131</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>3230</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>4367</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>8686</v>
+        <v>175754</v>
       </c>
     </row>
     <row r="31">
@@ -5851,28 +5575,19 @@
         <v>968571.008</v>
       </c>
       <c r="AW31" t="n">
-        <v>18234</v>
+        <v>2110612.992</v>
       </c>
       <c r="AX31" t="n">
-        <v>29737</v>
+        <v>1936608</v>
       </c>
       <c r="AY31" t="n">
-        <v>42707</v>
+        <v>53037</v>
       </c>
       <c r="AZ31" t="n">
-        <v>2110612.992</v>
+        <v>660</v>
       </c>
       <c r="BA31" t="n">
-        <v>1936608</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>45663</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>57760</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>46967</v>
+        <v>13507</v>
       </c>
     </row>
     <row r="32">
@@ -6037,15 +5752,6 @@
       <c r="BA32" t="n">
         <v>0</v>
       </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6195,28 +5901,19 @@
         <v>75090</v>
       </c>
       <c r="AW33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>32583</v>
+        <v>0</v>
       </c>
       <c r="AY33" t="n">
-        <v>14</v>
+        <v>171218</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>171218</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>8399</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>8399</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>406</v>
+        <v>684873.9840000001</v>
       </c>
     </row>
     <row r="34">
@@ -6367,28 +6064,19 @@
         <v>298962</v>
       </c>
       <c r="AW34" t="n">
-        <v>6548</v>
+        <v>345745.984</v>
       </c>
       <c r="AX34" t="n">
-        <v>5811</v>
+        <v>276185.984</v>
       </c>
       <c r="AY34" t="n">
-        <v>16311</v>
+        <v>150490.992</v>
       </c>
       <c r="AZ34" t="n">
-        <v>345745.984</v>
+        <v>82388</v>
       </c>
       <c r="BA34" t="n">
-        <v>276185.984</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>8049</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>8947</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>21173</v>
+        <v>102524.992</v>
       </c>
     </row>
     <row r="35">
@@ -6542,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AX35" t="n">
-        <v>24373</v>
+        <v>0</v>
       </c>
       <c r="AY35" t="n">
         <v>0</v>
@@ -6551,15 +6239,6 @@
         <v>0</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6725,15 +6404,6 @@
       <c r="BA36" t="n">
         <v>0</v>
       </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6883,28 +6553,19 @@
         <v>11343790.08</v>
       </c>
       <c r="AW37" t="n">
-        <v>228608.992</v>
+        <v>9498506.24</v>
       </c>
       <c r="AX37" t="n">
-        <v>87582</v>
+        <v>9219392.512</v>
       </c>
       <c r="AY37" t="n">
-        <v>177740</v>
+        <v>4002642.944</v>
       </c>
       <c r="AZ37" t="n">
-        <v>9498506.24</v>
+        <v>1548503.04</v>
       </c>
       <c r="BA37" t="n">
-        <v>9219392.512</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>162600</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>160512</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>137888</v>
+        <v>1304209.024</v>
       </c>
     </row>
     <row r="38">
@@ -7055,28 +6716,19 @@
         <v>10825796.608</v>
       </c>
       <c r="AW38" t="n">
-        <v>0</v>
+        <v>8706886.655999999</v>
       </c>
       <c r="AX38" t="n">
-        <v>0</v>
+        <v>8342889.984</v>
       </c>
       <c r="AY38" t="n">
-        <v>85000</v>
+        <v>3049014.016</v>
       </c>
       <c r="AZ38" t="n">
-        <v>8706886.655999999</v>
+        <v>631683.968</v>
       </c>
       <c r="BA38" t="n">
-        <v>8342889.984</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>64772</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>63835</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>42408</v>
+        <v>624358.976</v>
       </c>
     </row>
     <row r="39">
@@ -7241,15 +6893,6 @@
       <c r="BA39" t="n">
         <v>0</v>
       </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7399,28 +7042,19 @@
         <v>33073</v>
       </c>
       <c r="AW40" t="n">
-        <v>70254</v>
+        <v>68021</v>
       </c>
       <c r="AX40" t="n">
-        <v>69554</v>
+        <v>97881</v>
       </c>
       <c r="AY40" t="n">
-        <v>70008</v>
+        <v>70071</v>
       </c>
       <c r="AZ40" t="n">
-        <v>68021</v>
+        <v>10656</v>
       </c>
       <c r="BA40" t="n">
-        <v>97881</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>72827</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>73497</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>74839</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="41">
@@ -7571,28 +7205,19 @@
         <v>341719.008</v>
       </c>
       <c r="AW41" t="n">
-        <v>118636</v>
+        <v>610476.032</v>
       </c>
       <c r="AX41" t="n">
-        <v>3500</v>
+        <v>661969.024</v>
       </c>
       <c r="AY41" t="n">
-        <v>6377</v>
+        <v>766598.976</v>
       </c>
       <c r="AZ41" t="n">
-        <v>610476.032</v>
+        <v>787795.968</v>
       </c>
       <c r="BA41" t="n">
-        <v>661969.024</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>8040</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>11214</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>5858</v>
+        <v>573881.024</v>
       </c>
     </row>
     <row r="42">
@@ -7757,15 +7382,6 @@
       <c r="BA42" t="n">
         <v>0</v>
       </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7915,28 +7531,19 @@
         <v>137211.008</v>
       </c>
       <c r="AW43" t="n">
-        <v>39719</v>
+        <v>113122</v>
       </c>
       <c r="AX43" t="n">
-        <v>14528</v>
+        <v>116653</v>
       </c>
       <c r="AY43" t="n">
-        <v>16355</v>
+        <v>116959</v>
       </c>
       <c r="AZ43" t="n">
-        <v>113122</v>
+        <v>118367</v>
       </c>
       <c r="BA43" t="n">
-        <v>116653</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>16961</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>11966</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>14783</v>
+        <v>99315</v>
       </c>
     </row>
     <row r="44">
@@ -8101,15 +7708,6 @@
       <c r="BA44" t="n">
         <v>0</v>
       </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8273,15 +7871,6 @@
       <c r="BA45" t="n">
         <v>0</v>
       </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8445,15 +8034,6 @@
       <c r="BA46" t="n">
         <v>0</v>
       </c>
-      <c r="BB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8603,28 +8183,19 @@
         <v>4965668.864</v>
       </c>
       <c r="AW47" t="n">
-        <v>703308.992</v>
+        <v>7058167.808</v>
       </c>
       <c r="AX47" t="n">
-        <v>785934.0159999999</v>
+        <v>7684576.768</v>
       </c>
       <c r="AY47" t="n">
-        <v>741704</v>
+        <v>14894286.848</v>
       </c>
       <c r="AZ47" t="n">
-        <v>7058167.808</v>
+        <v>17622704.128</v>
       </c>
       <c r="BA47" t="n">
-        <v>7684576.768</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>714420.992</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>720843.008</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>720148.992</v>
+        <v>17046383.616</v>
       </c>
     </row>
     <row r="48">
@@ -8775,28 +8346,19 @@
         <v>3094902.016</v>
       </c>
       <c r="AW48" t="n">
-        <v>673587.968</v>
+        <v>4994902.016</v>
       </c>
       <c r="AX48" t="n">
-        <v>673587.968</v>
+        <v>6371601.92</v>
       </c>
       <c r="AY48" t="n">
-        <v>673587.968</v>
+        <v>13392899.072</v>
       </c>
       <c r="AZ48" t="n">
-        <v>4994902.016</v>
+        <v>15760963.584</v>
       </c>
       <c r="BA48" t="n">
-        <v>6371601.92</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>673587.968</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>673587.968</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>673587.968</v>
+        <v>15760963.584</v>
       </c>
     </row>
     <row r="49">
@@ -8947,28 +8509,19 @@
         <v>553337.024</v>
       </c>
       <c r="AW49" t="n">
-        <v>3913</v>
+        <v>1559191.04</v>
       </c>
       <c r="AX49" t="n">
-        <v>69</v>
+        <v>569750.0159999999</v>
       </c>
       <c r="AY49" t="n">
-        <v>75</v>
+        <v>569240</v>
       </c>
       <c r="AZ49" t="n">
-        <v>1559191.04</v>
+        <v>569950.0159999999</v>
       </c>
       <c r="BA49" t="n">
-        <v>569750.0159999999</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>-563</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>-563</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>-563</v>
+        <v>571054.976</v>
       </c>
     </row>
     <row r="50">
@@ -9133,15 +8686,6 @@
       <c r="BA50" t="n">
         <v>0</v>
       </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9291,28 +8835,19 @@
         <v>1258435.968</v>
       </c>
       <c r="AW51" t="n">
-        <v>1038</v>
+        <v>567852.992</v>
       </c>
       <c r="AX51" t="n">
-        <v>105628</v>
+        <v>785513.9840000001</v>
       </c>
       <c r="AY51" t="n">
-        <v>53219</v>
+        <v>932147.968</v>
       </c>
       <c r="AZ51" t="n">
-        <v>567852.992</v>
+        <v>932147.968</v>
       </c>
       <c r="BA51" t="n">
-        <v>785513.9840000001</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>34747</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>34747</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>34747</v>
+        <v>418492</v>
       </c>
     </row>
     <row r="52">
@@ -9463,28 +8998,19 @@
         <v>6774</v>
       </c>
       <c r="AW52" t="n">
-        <v>18121</v>
+        <v>0</v>
       </c>
       <c r="AX52" t="n">
         <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>8173</v>
+        <v>0</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0</v>
+        <v>359643.008</v>
       </c>
       <c r="BA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>6422</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>5728</v>
+        <v>295872.992</v>
       </c>
     </row>
     <row r="53">
@@ -9635,28 +9161,19 @@
         <v>52220</v>
       </c>
       <c r="AW53" t="n">
-        <v>6649</v>
+        <v>-63778</v>
       </c>
       <c r="AX53" t="n">
-        <v>6649</v>
+        <v>0</v>
       </c>
       <c r="AY53" t="n">
-        <v>6649</v>
+        <v>0</v>
       </c>
       <c r="AZ53" t="n">
-        <v>-63778</v>
+        <v>0</v>
       </c>
       <c r="BA53" t="n">
         <v>0</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>6649</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>6649</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>6649</v>
       </c>
     </row>
     <row r="54">
@@ -9821,15 +9338,6 @@
       <c r="BA54" t="n">
         <v>0</v>
       </c>
-      <c r="BB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9982,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="AX55" t="n">
-        <v>0</v>
+        <v>-42289</v>
       </c>
       <c r="AY55" t="n">
         <v>0</v>
@@ -9991,15 +9499,6 @@
         <v>0</v>
       </c>
       <c r="BA55" t="n">
-        <v>-42289</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10163,15 +9662,6 @@
         <v>0</v>
       </c>
       <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10233,9 +9723,6 @@
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr"/>
-      <c r="BD57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10295,9 +9782,6 @@
       <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10445,28 +9929,17 @@
         <v>2077072</v>
       </c>
       <c r="AW59" t="n">
-        <v>23916</v>
+        <v>1702765.952</v>
       </c>
       <c r="AX59" t="n">
-        <v>24499</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>24986</v>
-      </c>
+        <v>2224431.104</v>
+      </c>
+      <c r="AY59" t="inlineStr"/>
       <c r="AZ59" t="n">
-        <v>1702765.952</v>
+        <v>2158778.88</v>
       </c>
       <c r="BA59" t="n">
-        <v>2224431.104</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>19269</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>16320</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>17791</v>
+        <v>2138100.992</v>
       </c>
     </row>
     <row r="60">
@@ -10615,28 +10088,17 @@
         <v>-1253230.976</v>
       </c>
       <c r="AW60" t="n">
-        <v>-1759</v>
+        <v>-1200290.048</v>
       </c>
       <c r="AX60" t="n">
-        <v>-1601</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>-1224</v>
-      </c>
+        <v>-1501960.96</v>
+      </c>
+      <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="n">
-        <v>-1200290.048</v>
+        <v>-1583536</v>
       </c>
       <c r="BA60" t="n">
-        <v>-1501960.96</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>-1252</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>-1207</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-1203</v>
+        <v>-2194929.92</v>
       </c>
     </row>
     <row r="61">
@@ -10785,28 +10247,17 @@
         <v>823841.024</v>
       </c>
       <c r="AW61" t="n">
-        <v>22157</v>
+        <v>502476</v>
       </c>
       <c r="AX61" t="n">
-        <v>22898</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>23762</v>
-      </c>
+        <v>722470.0159999999</v>
+      </c>
+      <c r="AY61" t="inlineStr"/>
       <c r="AZ61" t="n">
-        <v>502476</v>
+        <v>575243.008</v>
       </c>
       <c r="BA61" t="n">
-        <v>722470.0159999999</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>18017</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>15113</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>16588</v>
+        <v>-56829</v>
       </c>
     </row>
     <row r="62">
@@ -10955,28 +10406,17 @@
         <v>-105240</v>
       </c>
       <c r="AW62" t="n">
-        <v>0</v>
+        <v>-64435</v>
       </c>
       <c r="AX62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>0</v>
-      </c>
+        <v>-84706</v>
+      </c>
+      <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="n">
-        <v>-64435</v>
+        <v>-78860</v>
       </c>
       <c r="BA62" t="n">
-        <v>-84706</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>0</v>
+        <v>-90008</v>
       </c>
     </row>
     <row r="63">
@@ -11125,28 +10565,17 @@
         <v>-116400</v>
       </c>
       <c r="AW63" t="n">
-        <v>-3624</v>
+        <v>-155696.992</v>
       </c>
       <c r="AX63" t="n">
-        <v>-7681</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-4699</v>
-      </c>
+        <v>-43024</v>
+      </c>
+      <c r="AY63" t="inlineStr"/>
       <c r="AZ63" t="n">
-        <v>-155696.992</v>
+        <v>-46637</v>
       </c>
       <c r="BA63" t="n">
-        <v>-43024</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-7368</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-6684</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-7820</v>
+        <v>-56480</v>
       </c>
     </row>
     <row r="64">
@@ -11300,22 +10729,11 @@
       <c r="AX64" t="n">
         <v>0</v>
       </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY64" t="inlineStr"/>
       <c r="AZ64" t="n">
         <v>0</v>
       </c>
       <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11470,22 +10888,11 @@
       <c r="AX65" t="n">
         <v>0</v>
       </c>
-      <c r="AY65" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY65" t="inlineStr"/>
       <c r="AZ65" t="n">
         <v>0</v>
       </c>
       <c r="BA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11635,28 +11042,17 @@
         <v>0</v>
       </c>
       <c r="AW66" t="n">
-        <v>5791</v>
+        <v>0</v>
       </c>
       <c r="AX66" t="n">
-        <v>-2236</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>-4783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AY66" t="inlineStr"/>
       <c r="AZ66" t="n">
         <v>0</v>
       </c>
       <c r="BA66" t="n">
         <v>0</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>2891</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>3873</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>-3159</v>
       </c>
     </row>
     <row r="67">
@@ -11805,27 +11201,16 @@
         <v>45</v>
       </c>
       <c r="AW67" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
+        <v>-403</v>
+      </c>
+      <c r="AY67" t="inlineStr"/>
       <c r="AZ67" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="BA67" t="n">
-        <v>-403</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11975,28 +11360,17 @@
         <v>-341195.008</v>
       </c>
       <c r="AW68" t="n">
-        <v>-3174</v>
+        <v>-346558.016</v>
       </c>
       <c r="AX68" t="n">
-        <v>2919</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>-3141</v>
-      </c>
+        <v>-271464</v>
+      </c>
+      <c r="AY68" t="inlineStr"/>
       <c r="AZ68" t="n">
-        <v>-346558.016</v>
+        <v>23139</v>
       </c>
       <c r="BA68" t="n">
-        <v>-271464</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>2167</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>-2620</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>-6480</v>
+        <v>101303</v>
       </c>
     </row>
     <row r="69">
@@ -12145,28 +11519,17 @@
         <v>65186</v>
       </c>
       <c r="AW69" t="n">
-        <v>854</v>
+        <v>64664</v>
       </c>
       <c r="AX69" t="n">
-        <v>2888</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>514</v>
-      </c>
+        <v>98936</v>
+      </c>
+      <c r="AY69" t="inlineStr"/>
       <c r="AZ69" t="n">
-        <v>64664</v>
+        <v>98327</v>
       </c>
       <c r="BA69" t="n">
-        <v>98936</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>3832</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>1866</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>1532</v>
+        <v>119127</v>
       </c>
     </row>
     <row r="70">
@@ -12315,28 +11678,17 @@
         <v>-406380.992</v>
       </c>
       <c r="AW70" t="n">
-        <v>-4028</v>
+        <v>-411222.016</v>
       </c>
       <c r="AX70" t="n">
-        <v>31</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>-3655</v>
-      </c>
+        <v>-370400</v>
+      </c>
+      <c r="AY70" t="inlineStr"/>
       <c r="AZ70" t="n">
-        <v>-411222.016</v>
+        <v>-75188</v>
       </c>
       <c r="BA70" t="n">
-        <v>-370400</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-1665</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>-4486</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>-8012</v>
+        <v>-17824</v>
       </c>
     </row>
     <row r="71">
@@ -12397,9 +11749,6 @@
       <c r="AY71" t="inlineStr"/>
       <c r="AZ71" t="inlineStr"/>
       <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="inlineStr"/>
-      <c r="BD71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12459,9 +11808,6 @@
       <c r="AY72" t="inlineStr"/>
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="inlineStr"/>
-      <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="inlineStr"/>
-      <c r="BD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12521,9 +11867,6 @@
       <c r="AY73" t="inlineStr"/>
       <c r="AZ73" t="inlineStr"/>
       <c r="BA73" t="inlineStr"/>
-      <c r="BB73" t="inlineStr"/>
-      <c r="BC73" t="inlineStr"/>
-      <c r="BD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12671,28 +12014,17 @@
         <v>261311.008</v>
       </c>
       <c r="AW74" t="n">
-        <v>21150</v>
+        <v>-64233</v>
       </c>
       <c r="AX74" t="n">
-        <v>15900</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>11139</v>
-      </c>
+        <v>322872.992</v>
+      </c>
+      <c r="AY74" t="inlineStr"/>
       <c r="AZ74" t="n">
-        <v>-64233</v>
+        <v>472884.992</v>
       </c>
       <c r="BA74" t="n">
-        <v>322872.992</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>15707</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>9682</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>-871</v>
+        <v>-102014</v>
       </c>
     </row>
     <row r="75">
@@ -12841,28 +12173,17 @@
         <v>-12285</v>
       </c>
       <c r="AW75" t="n">
-        <v>-5054</v>
+        <v>-14669</v>
       </c>
       <c r="AX75" t="n">
-        <v>-4850</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>-89</v>
-      </c>
+        <v>-66683</v>
+      </c>
+      <c r="AY75" t="inlineStr"/>
       <c r="AZ75" t="n">
-        <v>-14669</v>
+        <v>-110565</v>
       </c>
       <c r="BA75" t="n">
-        <v>-66683</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>-63</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>-86</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>-3549</v>
+        <v>-176460.992</v>
       </c>
     </row>
     <row r="76">
@@ -13011,28 +12332,17 @@
         <v>-298929.984</v>
       </c>
       <c r="AW76" t="n">
-        <v>-1300</v>
+        <v>11300</v>
       </c>
       <c r="AX76" t="n">
-        <v>107997</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>-2877</v>
-      </c>
+        <v>-38529</v>
+      </c>
+      <c r="AY76" t="inlineStr"/>
       <c r="AZ76" t="n">
-        <v>11300</v>
+        <v>-2677</v>
       </c>
       <c r="BA76" t="n">
-        <v>-38529</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>-2032</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>-3174</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>3726</v>
+        <v>214704.992</v>
       </c>
     </row>
     <row r="77">
@@ -13093,9 +12403,6 @@
       <c r="AY77" t="inlineStr"/>
       <c r="AZ77" t="inlineStr"/>
       <c r="BA77" t="inlineStr"/>
-      <c r="BB77" t="inlineStr"/>
-      <c r="BC77" t="inlineStr"/>
-      <c r="BD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13155,9 +12462,6 @@
       <c r="AY78" t="inlineStr"/>
       <c r="AZ78" t="inlineStr"/>
       <c r="BA78" t="inlineStr"/>
-      <c r="BB78" t="inlineStr"/>
-      <c r="BC78" t="inlineStr"/>
-      <c r="BD78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13292,22 +12596,11 @@
       <c r="AX79" t="n">
         <v>0</v>
       </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY79" t="inlineStr"/>
       <c r="AZ79" t="n">
         <v>0</v>
       </c>
       <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13457,28 +12750,17 @@
         <v>-49904</v>
       </c>
       <c r="AW80" t="n">
-        <v>14796</v>
+        <v>-67602</v>
       </c>
       <c r="AX80" t="n">
-        <v>119047</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>8173</v>
-      </c>
+        <v>217660.992</v>
+      </c>
+      <c r="AY80" t="inlineStr"/>
       <c r="AZ80" t="n">
-        <v>-67602</v>
+        <v>359643.008</v>
       </c>
       <c r="BA80" t="n">
-        <v>217660.992</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>13612</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>6422</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>-694</v>
+        <v>-63770</v>
       </c>
     </row>
   </sheetData>
